--- a/CréateurDeProblème/Map.xlsx
+++ b/CréateurDeProblème/Map.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\CréateurDeProblème\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ps-home.insa-lyon.fr\users\home\jroussel\Documents\CréateurDeProblème\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397FBD2-35AC-498A-AEC7-521EBCE73E24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F06536E-C059-47E0-98AA-7904A9B16076}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{8BECC891-4571-4895-95BA-F822BF589E6F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" activeTab="2" xr2:uid="{8BECC891-4571-4895-95BA-F822BF589E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,6 +24,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Foret</t>
+  </si>
+  <si>
+    <t>Eau</t>
+  </si>
+  <si>
+    <t>Rien</t>
+  </si>
+  <si>
+    <t>Motnagne</t>
+  </si>
+  <si>
+    <t>Bordure</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,6 +91,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4D4D4D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC3300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF996633"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD60093"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -85,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -94,6 +158,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,7 +173,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFD60093"/>
+      <color rgb="FF4D4D4D"/>
+      <color rgb="FF006600"/>
+      <color rgb="FF996633"/>
+      <color rgb="FF0066FF"/>
       <color rgb="FFCC3300"/>
+      <color rgb="FFFFFFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -415,14 +493,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152259E1-676E-4FB4-8D3A-3590A8469FB2}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
+      <c r="A1" s="8"/>
       <c r="B1" s="3"/>
       <c r="C1" s="5"/>
       <c r="D1" s="3"/>
@@ -430,15 +508,16 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="1"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="6"/>
@@ -452,7 +531,7 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -514,6 +593,10 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -524,6 +607,10 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -534,6 +621,10 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -544,6 +635,10 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -554,6 +649,10 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -686,4 +785,248 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE651A5A-4822-46AA-8BC7-ECD3071F1FC5}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="1"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="1"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04AA71E-582D-4DFA-8C13-57FA043A37BE}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="12"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="12"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="9"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="9"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>